--- a/Results/UVC_CPD_percentage_young skin_V1.xlsx
+++ b/Results/UVC_CPD_percentage_young skin_V1.xlsx
@@ -419,19 +419,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.17</v>
+        <v>0.04</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.194458845830879</v>
+        <v>-1.10493476989594</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.145541154169121</v>
+        <v>1.18493476989594</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.999954040003884</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +442,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.17</v>
+        <v>0.04</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.194458845830879</v>
+        <v>-1.10493476989594</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.145541154169121</v>
+        <v>1.18493476989594</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.999954024347963</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="4">
@@ -465,19 +465,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.17</v>
+        <v>-0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.194458845830879</v>
+        <v>-1.19493476989594</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.145541154169121</v>
+        <v>1.09493476989594</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.999888453518731</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="5">
@@ -488,19 +488,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.17</v>
+        <v>0.56</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.194458845830879</v>
+        <v>-0.584934769895937</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.145541154169121</v>
+        <v>1.70493476989594</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.546841751127347</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.972163113115283</v>
       </c>
     </row>
     <row r="6">
@@ -511,19 +511,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.3</v>
+        <v>7.29</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.70756304786115</v>
+        <v>-3.86765921809915</v>
       </c>
       <c r="E6" t="n">
-        <v>7.30756304786115</v>
+        <v>18.4476592180991</v>
       </c>
       <c r="F6" t="n">
-        <v>0.950872061235066</v>
+        <v>0.296228491253824</v>
       </c>
       <c r="G6" t="n">
-        <v>0.990141692962098</v>
+        <v>0.789942643343531</v>
       </c>
     </row>
     <row r="7">
@@ -534,19 +534,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.92756304786115</v>
+        <v>-9.40765921809915</v>
       </c>
       <c r="E7" t="n">
-        <v>7.08756304786115</v>
+        <v>12.9076592180991</v>
       </c>
       <c r="F7" t="n">
-        <v>0.974204046636409</v>
+        <v>0.98423965178173</v>
       </c>
       <c r="G7" t="n">
-        <v>0.990141692962098</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="8">
@@ -557,19 +557,19 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>2.54</v>
+        <v>2.91</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.46756304786115</v>
+        <v>-8.24765921809915</v>
       </c>
       <c r="E8" t="n">
-        <v>8.54756304786115</v>
+        <v>14.0676592180991</v>
       </c>
       <c r="F8" t="n">
-        <v>0.663857832623833</v>
+        <v>0.909667303939179</v>
       </c>
       <c r="G8" t="n">
-        <v>0.885143776831778</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="9">
@@ -580,19 +580,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>5.1</v>
+        <v>6.06</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.907563047861154</v>
+        <v>-5.09765921809915</v>
       </c>
       <c r="E9" t="n">
-        <v>11.1075630478612</v>
+        <v>17.2176592180991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116824009297786</v>
+        <v>0.455723732455904</v>
       </c>
       <c r="G9" t="n">
-        <v>0.233648018595572</v>
+        <v>0.911447464911807</v>
       </c>
     </row>
     <row r="10">
@@ -603,19 +603,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.05124497921436</v>
+        <v>-13.8966719397445</v>
       </c>
       <c r="E10" t="n">
-        <v>9.31124497921436</v>
+        <v>21.0966719397445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.990141692962098</v>
+        <v>0.958643776734753</v>
       </c>
       <c r="G10" t="n">
-        <v>0.990141692962098</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="11">
@@ -626,19 +626,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4.36</v>
+        <v>10.26</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.82124497921436</v>
+        <v>-7.23667193974447</v>
       </c>
       <c r="E11" t="n">
-        <v>12.5412449792144</v>
+        <v>27.7566719397445</v>
       </c>
       <c r="F11" t="n">
-        <v>0.472479311490681</v>
+        <v>0.388376644157544</v>
       </c>
       <c r="G11" t="n">
-        <v>0.687242634895535</v>
+        <v>0.887718043788671</v>
       </c>
     </row>
     <row r="12">
@@ -649,19 +649,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>5.21</v>
+        <v>13.39</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.97124497921436</v>
+        <v>-4.10667193974447</v>
       </c>
       <c r="E12" t="n">
-        <v>13.3912449792144</v>
+        <v>30.8866719397445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.317521404771572</v>
+        <v>0.178078800092171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.508034247634516</v>
+        <v>0.569852160294948</v>
       </c>
     </row>
     <row r="13">
@@ -672,19 +672,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>3.03</v>
+        <v>4.21</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.15124497921436</v>
+        <v>-13.2866719397445</v>
       </c>
       <c r="E13" t="n">
-        <v>11.2112449792144</v>
+        <v>21.7066719397445</v>
       </c>
       <c r="F13" t="n">
-        <v>0.754513989868253</v>
+        <v>0.93016383182917</v>
       </c>
       <c r="G13" t="n">
-        <v>0.928632602914773</v>
+        <v>0.999954040003884</v>
       </c>
     </row>
     <row r="14">
@@ -695,19 +695,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>9.34</v>
+        <v>12.24</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.78659739340562</v>
+        <v>-3.46541705981242</v>
       </c>
       <c r="E14" t="n">
-        <v>22.4665973934056</v>
+        <v>27.9454170598124</v>
       </c>
       <c r="F14" t="n">
-        <v>0.229313812529918</v>
+        <v>0.166259632852575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.407669000053188</v>
+        <v>0.569852160294948</v>
       </c>
     </row>
     <row r="15">
@@ -718,19 +718,19 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5</v>
+        <v>27.74</v>
       </c>
       <c r="D15" t="n">
-        <v>10.3734026065944</v>
+        <v>12.0345829401876</v>
       </c>
       <c r="E15" t="n">
-        <v>36.6265973934056</v>
+        <v>43.4454170598124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00016854731988114</v>
+        <v>0.000206099036646368</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000385251016871178</v>
+        <v>0.00109919486211396</v>
       </c>
     </row>
     <row r="16">
@@ -741,19 +741,19 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>46.88</v>
+        <v>52.24</v>
       </c>
       <c r="D16" t="n">
-        <v>33.7534026065944</v>
+        <v>36.5345829401876</v>
       </c>
       <c r="E16" t="n">
-        <v>60.0065973934056</v>
+        <v>67.9454170598124</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00000000000337696537400234</v>
+        <v>0.0000000000274595901572638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0000000000108062891968075</v>
+        <v>0.000000000439353442516222</v>
       </c>
     </row>
     <row r="17">
@@ -764,19 +764,19 @@
         <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>41.63</v>
+        <v>43.18</v>
       </c>
       <c r="D17" t="n">
-        <v>28.5034026065944</v>
+        <v>27.4745829401876</v>
       </c>
       <c r="E17" t="n">
-        <v>54.7565973934056</v>
+        <v>58.8854170598124</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000000000217391216139617</v>
+        <v>0.0000000245471284410215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000000000579709909705646</v>
+        <v>0.000000196377027528172</v>
       </c>
     </row>
   </sheetData>
